--- a/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
+++ b/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\AQSP\forms\rastreio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\rastreio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC921A8-0132-4B45-8347-1CA400B4C428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B1DA2-E363-496D-8B8D-3637591EA7B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14760" yWindow="15780" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13350" yWindow="14415" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="231">
   <si>
     <t>type</t>
   </si>
@@ -537,9 +537,6 @@
     <t>[data('id_rastreio')]</t>
   </si>
   <si>
-    <t>AQSP</t>
-  </si>
-  <si>
     <t>Idade ou data de nascimento?</t>
   </si>
   <si>
@@ -730,6 +727,12 @@
   </si>
   <si>
     <t>{date_rastreio: data('date_rastreio'), id_rastreio: data('id_rastreio'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), febre: data('febre'), temperatura: data('temperatura'), TDR: data('TDR'), resultado_TDR: data('resultado_TDR'), via_oral: data('via_oral'), desnutrido: data('desnutrido'), paludismo_grave: data('paludismo_grave'), outra_condicao: data('outra_condicao'), especificar_condicao: data('especificar_condicao'), nota_condicao: data('nota_condicao'), consentimento: data('consentimento'), }</t>
+  </si>
+  <si>
+    <t>display.adate.fromYear</t>
+  </si>
+  <si>
+    <t>display.adate.toYear</t>
   </si>
 </sst>
 </file>
@@ -1468,7 +1471,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
         <v>160</v>
@@ -1487,13 +1490,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W98"/>
+  <dimension ref="A1:Y98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1507,15 +1510,17 @@
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="45" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.75" style="6"/>
-    <col min="12" max="12" width="28.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="17" style="2" customWidth="1"/>
-    <col min="14" max="14" width="60" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.75" style="2"/>
+    <col min="10" max="10" width="19.125" customWidth="1"/>
+    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="12" max="12" width="45" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="6"/>
+    <col min="14" max="14" width="28.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17" style="2" customWidth="1"/>
+    <col min="16" max="16" width="60" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1543,50 +1548,56 @@
       <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
@@ -1595,10 +1606,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>67</v>
       </c>
@@ -1608,67 +1619,73 @@
       <c r="G3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="2" t="b">
+      <c r="M3" s="22"/>
+      <c r="N3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="2" t="b">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4">
+        <v>2020</v>
+      </c>
+      <c r="K4">
+        <v>2020</v>
+      </c>
+      <c r="N4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5"/>
+        <v>156</v>
+      </c>
+      <c r="H5" t="s">
+        <v>157</v>
+      </c>
       <c r="I5"/>
-      <c r="L5" s="2" t="b">
+      <c r="N5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D6" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I6"/>
-      <c r="L6" s="2" t="b">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
@@ -1676,7 +1693,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>4</v>
@@ -1688,16 +1705,16 @@
       <c r="G8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="2" t="b">
+      <c r="N8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1708,18 +1725,18 @@
         <v>97</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="L10" s="2" t="b">
+        <v>165</v>
+      </c>
+      <c r="N10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
@@ -1730,7 +1747,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
         <v>67</v>
@@ -1742,11 +1759,17 @@
       <c r="G14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="J14">
+        <v>2014</v>
+      </c>
+      <c r="K14">
+        <v>2020</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1754,7 +1777,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
         <v>5</v>
@@ -1769,11 +1792,11 @@
       <c r="I16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="N16" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
         <v>5</v>
@@ -1788,14 +1811,14 @@
       <c r="I17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="N17" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1803,12 +1826,12 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
@@ -1816,7 +1839,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
         <v>10</v>
@@ -1830,11 +1853,11 @@
       <c r="G24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L24" s="2" t="b">
+      <c r="N24" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
         <v>108</v>
@@ -1846,11 +1869,11 @@
       <c r="G25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
@@ -1858,12 +1881,12 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C27" s="8"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
         <v>10</v>
@@ -1877,15 +1900,15 @@
       <c r="G28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L28" s="2" t="b">
+      <c r="N28" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>130</v>
       </c>
@@ -1895,12 +1918,12 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="8"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
         <v>10</v>
@@ -1914,15 +1937,15 @@
       <c r="G32" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L32" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N32" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>130</v>
       </c>
@@ -1932,18 +1955,18 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="C36" s="8"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="C37" s="8"/>
       <c r="D37" s="9" t="s">
@@ -1958,11 +1981,11 @@
       <c r="G37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N37" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D38" s="9" t="s">
         <v>10</v>
       </c>
@@ -1975,11 +1998,11 @@
       <c r="G38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L38" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N38" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="D39" s="9" t="s">
         <v>10</v>
@@ -1993,16 +2016,16 @@
       <c r="G39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="L39" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N39" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D40" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>139</v>
@@ -2010,11 +2033,11 @@
       <c r="G40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L40" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N40" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>140</v>
       </c>
@@ -2022,12 +2045,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>144</v>
@@ -2035,21 +2055,21 @@
       <c r="G42" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="N42" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>147</v>
       </c>
@@ -2057,7 +2077,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>130</v>
       </c>
@@ -2065,7 +2085,7 @@
       <c r="E47" s="10"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
@@ -2073,7 +2093,7 @@
       <c r="E48" s="10"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>52</v>
       </c>
@@ -2081,20 +2101,20 @@
       <c r="E49" s="22"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C50" s="9"/>
       <c r="D50" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C51" s="8"/>
       <c r="D51" s="9" t="s">
         <v>10</v>
@@ -2108,18 +2128,18 @@
       <c r="G51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="L51" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N51" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="8"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>50</v>
       </c>
@@ -2129,7 +2149,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>152</v>
       </c>
@@ -2140,7 +2160,7 @@
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>51</v>
       </c>
@@ -2150,9 +2170,9 @@
       <c r="F55" s="13"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
-      <c r="K55" s="5"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="D56" s="2" t="s">
         <v>76</v>
@@ -2162,7 +2182,7 @@
       </c>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
@@ -2173,7 +2193,7 @@
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
       <c r="D58" s="12"/>
@@ -2182,7 +2202,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>123</v>
       </c>
@@ -2193,7 +2213,7 @@
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
@@ -2202,7 +2222,7 @@
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="12"/>
@@ -2211,7 +2231,7 @@
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
@@ -2220,7 +2240,7 @@
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
@@ -2229,7 +2249,7 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
@@ -2238,7 +2258,7 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
       <c r="D65" s="12"/>
@@ -2247,7 +2267,7 @@
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="D66" s="12"/>
@@ -2256,7 +2276,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="12"/>
@@ -2265,7 +2285,7 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="12"/>
@@ -2274,42 +2294,42 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="1:12" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>119</v>
       </c>
@@ -2325,28 +2345,34 @@
       <c r="G76" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="K76" s="25"/>
-      <c r="L76" s="23" t="s">
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="M76" s="25"/>
+      <c r="N76" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="23" t="s">
         <v>123</v>
       </c>
       <c r="F77" s="24"/>
-      <c r="K77" s="25"/>
-    </row>
-    <row r="78" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="M77" s="25"/>
+    </row>
+    <row r="78" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F78" s="24"/>
-      <c r="K78" s="25"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="M78" s="25"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>127</v>
       </c>
@@ -2360,12 +2386,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
         <v>123</v>
       </c>
@@ -2373,27 +2399,27 @@
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="1:11" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="26" t="s">
         <v>124</v>
       </c>
@@ -2406,49 +2432,51 @@
       <c r="G87" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="K87" s="27"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="M87" s="27"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="9"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="9"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="9"/>
@@ -2464,7 +2492,7 @@
       <c r="F98" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
@@ -2480,8 +2508,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D237"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3307,7 +3335,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3370,7 +3398,7 @@
         <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
         <v>163</v>
@@ -3379,7 +3407,7 @@
         <v>164</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>77</v>
@@ -3513,7 +3541,7 @@
   <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B28"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3535,7 +3563,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3543,7 +3571,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3551,7 +3579,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3559,7 +3587,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3567,7 +3595,7 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3712,7 +3740,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>144</v>
@@ -3723,7 +3751,7 @@
         <v>65</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3739,7 +3767,7 @@
         <v>65</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3747,7 +3775,7 @@
         <v>62</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3755,7 +3783,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3763,7 +3791,7 @@
         <v>62</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3771,7 +3799,7 @@
         <v>65</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3779,7 +3807,7 @@
         <v>65</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3787,7 +3815,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3795,7 +3823,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3811,7 +3839,7 @@
         <v>108</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3819,7 +3847,7 @@
         <v>108</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3827,7 +3855,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3835,7 +3863,7 @@
         <v>62</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3843,7 +3871,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3851,7 +3879,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3859,7 +3887,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3867,7 +3895,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3875,7 +3903,7 @@
         <v>62</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3883,7 +3911,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3891,7 +3919,7 @@
         <v>62</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3899,7 +3927,7 @@
         <v>62</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3907,7 +3935,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3915,7 +3943,7 @@
         <v>65</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3923,7 +3951,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3931,7 +3959,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3939,7 +3967,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3947,7 +3975,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3955,7 +3983,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3963,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3971,7 +3999,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3979,7 +4007,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3987,7 +4015,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3995,7 +4023,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -4003,7 +4031,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -4011,7 +4039,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -4019,7 +4047,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -4027,7 +4055,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -4035,15 +4063,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="35" t="s">
         <v>209</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4051,7 +4079,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -4059,15 +4087,15 @@
         <v>10</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -4075,7 +4103,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -4083,15 +4111,15 @@
         <v>67</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -4099,7 +4127,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -4107,15 +4135,15 @@
         <v>10</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -4123,7 +4151,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -4131,7 +4159,7 @@
         <v>65</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -4139,7 +4167,7 @@
         <v>10</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -4172,6 +4200,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
+++ b/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\rastreio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B1DA2-E363-496D-8B8D-3637591EA7B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92DAA67-C4BB-451C-8398-93B70A80F01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="14415" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13350" yWindow="14415" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="237">
   <si>
     <t>type</t>
   </si>
@@ -276,12 +276,6 @@
     <t>{}</t>
   </si>
   <si>
-    <t>concat(data('letra_sticker'),data('numero_sticker'))</t>
-  </si>
-  <si>
-    <t>codigo_manual</t>
-  </si>
-  <si>
     <t>data('mes')&lt;12</t>
   </si>
   <si>
@@ -393,12 +387,6 @@
     <t>P. Ovale</t>
   </si>
   <si>
-    <t>ano_em_mes</t>
-  </si>
-  <si>
-    <t>(data('ano')*12) + data('mes')</t>
-  </si>
-  <si>
     <t>exclusao</t>
   </si>
   <si>
@@ -477,18 +465,12 @@
     <t>especificar_condicao</t>
   </si>
   <si>
-    <t>Especifique a outra condição que a criança tem?</t>
-  </si>
-  <si>
     <t>end if // condicao</t>
   </si>
   <si>
     <t xml:space="preserve">if </t>
   </si>
   <si>
-    <t>data('via_oral')=='2' || data('desnutrido')=='1' || data('paludismo_grave')=='1'</t>
-  </si>
-  <si>
     <t>consentimento</t>
   </si>
   <si>
@@ -525,9 +507,6 @@
     <t>id_rastreio</t>
   </si>
   <si>
-    <t>Nº de rastreio</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -733,6 +712,45 @@
   </si>
   <si>
     <t>display.adate.toYear</t>
+  </si>
+  <si>
+    <t>visita_id</t>
+  </si>
+  <si>
+    <t>adate.ageInDays(data('date_rastreio'))</t>
+  </si>
+  <si>
+    <t>idade_mes</t>
+  </si>
+  <si>
+    <t>(data('DOB_ou_idade')=='1')?adate.ageInMonths(data('dn')):(12*data('ano')+data('mes'))</t>
+  </si>
+  <si>
+    <t>calculates.idade_mes()&lt;2 || calculates.idade_mes()&gt;=59</t>
+  </si>
+  <si>
+    <t>Que tipo de condição?</t>
+  </si>
+  <si>
+    <t>Se For outra: especifique a outra condição que a criança tem?</t>
+  </si>
+  <si>
+    <t>tipo_condicao</t>
+  </si>
+  <si>
+    <t>Outra condição</t>
+  </si>
+  <si>
+    <t>data('tipo_condicao')=='1'</t>
+  </si>
+  <si>
+    <t>Nº de rastreio:</t>
+  </si>
+  <si>
+    <t>data('via_oral')=='2' || data('desnutrido')=='1' || data('paludismo_grave')=='1' || data('outra_condicao')=='1'</t>
+  </si>
+  <si>
+    <t>data('ano')&lt;5</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1460,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,7 +1476,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1466,15 +1484,15 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1490,13 +1508,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y98"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1549,10 +1567,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1614,10 +1632,16 @@
         <v>67</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+      <c r="J3">
+        <v>2020</v>
+      </c>
+      <c r="K3">
+        <v>2020</v>
       </c>
       <c r="M3" s="22"/>
       <c r="N3" s="2" t="b">
@@ -1635,16 +1659,10 @@
         <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4">
-        <v>2020</v>
-      </c>
-      <c r="K4">
-        <v>2020</v>
-      </c>
       <c r="N4" s="2" t="b">
         <v>1</v>
       </c>
@@ -1654,16 +1672,16 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="I5"/>
       <c r="N5" s="2" t="b">
@@ -1675,10 +1693,10 @@
         <v>62</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="2" t="b">
@@ -1719,13 +1737,13 @@
         <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="N10" s="2" t="b">
         <v>1</v>
@@ -1736,12 +1754,17 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1766,7 +1789,7 @@
         <v>2020</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -1790,10 +1813,13 @@
         <v>53</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
@@ -1809,13 +1835,13 @@
         <v>54</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
@@ -1827,421 +1853,379 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N24" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>107</v>
-      </c>
+      <c r="C20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="C26" s="8"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N27" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N28" s="2" t="b">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>129</v>
-      </c>
+      <c r="C30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N31" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="8"/>
-      <c r="D32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>222</v>
-      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>158</v>
-      </c>
+      <c r="C34" s="8"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="C36" s="8"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>223</v>
-      </c>
+      <c r="B37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>223</v>
-      </c>
+      <c r="C38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39"/>
-      <c r="D39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="C39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42"/>
+      <c r="D42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D42" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="N43" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D49" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C51" s="8"/>
-      <c r="D51" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="F52" s="9"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="9"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C59" s="9"/>
+      <c r="D59" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C60" s="8"/>
+      <c r="D60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="F61" s="9"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="M55" s="5"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56"/>
-      <c r="D56" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="10"/>
+      <c r="C62" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="10"/>
@@ -2249,26 +2233,32 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="10"/>
       <c r="F64" s="13"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65"/>
+      <c r="D65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="C66" s="10"/>
       <c r="D66" s="12"/>
       <c r="E66" s="10"/>
@@ -2276,7 +2266,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="12"/>
@@ -2285,8 +2275,10 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="C68" s="10"/>
       <c r="D68" s="12"/>
       <c r="E68" s="10"/>
@@ -2294,192 +2286,228 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="9"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="9"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="9"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="9"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="9"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="9"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="9"/>
-    </row>
-    <row r="76" spans="1:14" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="G76" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="M76" s="25"/>
-      <c r="N76" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="F77" s="24"/>
-      <c r="J77"/>
-      <c r="K77"/>
-      <c r="M77" s="25"/>
-    </row>
-    <row r="78" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F78" s="24"/>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="M78" s="25"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="9"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="2" t="s">
-        <v>123</v>
-      </c>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="9"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="9"/>
-    </row>
-    <row r="87" spans="1:13" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F87" s="26" t="s">
+    <row r="85" spans="1:14" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F85" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="G87" s="26" t="s">
-        <v>126</v>
-      </c>
+    </row>
+    <row r="86" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="24"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="M86" s="25"/>
+    </row>
+    <row r="87" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="24"/>
       <c r="J87"/>
       <c r="K87"/>
-      <c r="M87" s="27"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M87" s="25"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="9"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="9"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="9"/>
+    <row r="96" spans="1:14" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="G96" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="M96" s="27"/>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="8"/>
@@ -2490,6 +2518,51 @@
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9"/>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9"/>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9"/>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="9"/>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="9"/>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="9"/>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2509,7 +2582,7 @@
   <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2558,7 +2631,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2569,7 +2642,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -2617,10 +2690,10 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2628,10 +2701,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,86 +2712,86 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2730,35 +2803,35 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2771,35 +2844,35 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2814,39 +2887,47 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
@@ -3335,7 +3416,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3389,31 +3470,31 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3493,7 +3574,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3512,18 +3593,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>224</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3540,7 +3621,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -3563,7 +3644,7 @@
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3571,7 +3652,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3579,7 +3660,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3587,7 +3668,7 @@
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3595,7 +3676,7 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3607,7 +3688,7 @@
         <v>67</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3615,7 +3696,7 @@
         <v>62</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3631,7 +3712,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3647,7 +3728,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3679,15 +3760,15 @@
         <v>10</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3695,7 +3776,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3703,7 +3784,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3711,7 +3792,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3719,7 +3800,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3727,7 +3808,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3816,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3743,7 +3824,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3751,7 +3832,7 @@
         <v>65</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3759,7 +3840,7 @@
         <v>10</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -3767,7 +3848,7 @@
         <v>65</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -3775,7 +3856,7 @@
         <v>62</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3783,7 +3864,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3791,7 +3872,7 @@
         <v>62</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3799,7 +3880,7 @@
         <v>65</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3807,7 +3888,7 @@
         <v>65</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3815,7 +3896,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3823,7 +3904,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3836,18 +3917,18 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3855,7 +3936,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3863,7 +3944,7 @@
         <v>62</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3871,7 +3952,7 @@
         <v>62</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3879,7 +3960,7 @@
         <v>5</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3887,7 +3968,7 @@
         <v>62</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3895,7 +3976,7 @@
         <v>5</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3903,7 +3984,7 @@
         <v>62</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3911,7 +3992,7 @@
         <v>5</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3919,7 +4000,7 @@
         <v>62</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3927,7 +4008,7 @@
         <v>62</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3935,7 +4016,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3943,7 +4024,7 @@
         <v>65</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3951,7 +4032,7 @@
         <v>10</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3959,7 +4040,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3967,7 +4048,7 @@
         <v>10</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3975,7 +4056,7 @@
         <v>10</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3983,7 +4064,7 @@
         <v>10</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3991,7 +4072,7 @@
         <v>10</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3999,7 +4080,7 @@
         <v>10</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -4007,7 +4088,7 @@
         <v>10</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -4015,7 +4096,7 @@
         <v>10</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -4023,7 +4104,7 @@
         <v>10</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -4031,7 +4112,7 @@
         <v>4</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -4039,7 +4120,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -4047,7 +4128,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -4055,7 +4136,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -4063,15 +4144,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -4079,7 +4160,7 @@
         <v>10</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -4087,15 +4168,15 @@
         <v>10</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -4103,7 +4184,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -4111,15 +4192,15 @@
         <v>67</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="35" t="s">
         <v>208</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -4127,7 +4208,7 @@
         <v>10</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -4135,15 +4216,15 @@
         <v>10</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -4151,7 +4232,7 @@
         <v>10</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -4159,7 +4240,7 @@
         <v>65</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -4167,7 +4248,7 @@
         <v>10</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -4175,7 +4256,7 @@
         <v>10</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -4191,7 +4272,7 @@
         <v>65</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">

--- a/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
+++ b/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\rastreio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92DAA67-C4BB-451C-8398-93B70A80F01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB86F9-B698-49AC-8DCF-AC98BCC6AA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="14415" windowWidth="13680" windowHeight="4410" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1725" windowWidth="15390" windowHeight="9540" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="245">
   <si>
     <t>type</t>
   </si>
@@ -507,9 +507,6 @@
     <t>id_rastreio</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>id_rastreio=?</t>
   </si>
   <si>
@@ -705,9 +702,6 @@
     <t>instance_name</t>
   </si>
   <si>
-    <t>{date_rastreio: data('date_rastreio'), id_rastreio: data('id_rastreio'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), febre: data('febre'), temperatura: data('temperatura'), TDR: data('TDR'), resultado_TDR: data('resultado_TDR'), via_oral: data('via_oral'), desnutrido: data('desnutrido'), paludismo_grave: data('paludismo_grave'), outra_condicao: data('outra_condicao'), especificar_condicao: data('especificar_condicao'), nota_condicao: data('nota_condicao'), consentimento: data('consentimento'), }</t>
-  </si>
-  <si>
     <t>display.adate.fromYear</t>
   </si>
   <si>
@@ -726,9 +720,6 @@
     <t>(data('DOB_ou_idade')=='1')?adate.ageInMonths(data('dn')):(12*data('ano')+data('mes'))</t>
   </si>
   <si>
-    <t>calculates.idade_mes()&lt;2 || calculates.idade_mes()&gt;=59</t>
-  </si>
-  <si>
     <t>Que tipo de condição?</t>
   </si>
   <si>
@@ -751,6 +742,39 @@
   </si>
   <si>
     <t>data('ano')&lt;5</t>
+  </si>
+  <si>
+    <t>calculates.idade_mes()&lt;3 || calculates.idade_mes()&gt;59</t>
+  </si>
+  <si>
+    <t>calculates.idade_mes()&gt;=3 &amp;&amp; calculates.idade_mes()&lt;=59</t>
+  </si>
+  <si>
+    <t>A espera do resultado</t>
+  </si>
+  <si>
+    <t>data('resultado_TDR')=='3'</t>
+  </si>
+  <si>
+    <t>revisa o valor introduzido, a temperatura deve ser en grau celsius e nao fahrenheit</t>
+  </si>
+  <si>
+    <t>adate.today()</t>
+  </si>
+  <si>
+    <t>Data {{calculates.date_rastreio_display}}</t>
+  </si>
+  <si>
+    <t>date_rastreio_display</t>
+  </si>
+  <si>
+    <t>!adate.hasUncertainty(data('dn'))</t>
+  </si>
+  <si>
+    <t>adate.display(calculates.date_rastreio())</t>
+  </si>
+  <si>
+    <t>{date_rastreio: calculates.date_rastreio(), id_rastreio: data('id_rastreio'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), febre: data('febre'), temperatura: data('temperatura'), TDR: data('TDR'), resultado_TDR: data('resultado_TDR'), via_oral: data('via_oral'), desnutrido: data('desnutrido'), paludismo_grave: data('paludismo_grave'), outra_condicao: data('outra_condicao'), especificar_condicao: data('especificar_condicao'), nota_condicao: data('nota_condicao'), consentimento: data('consentimento'), }</t>
   </si>
 </sst>
 </file>
@@ -1437,14 +1461,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1455,7 +1479,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1463,7 +1487,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1471,7 +1495,7 @@
         <v>2020061901</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1479,7 +1503,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1487,9 +1511,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" t="s">
         <v>154</v>
@@ -1511,13 +1535,13 @@
   <dimension ref="A1:Y107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="2" customWidth="1"/>
@@ -1528,8 +1552,8 @@
     <col min="7" max="7" width="63" style="2" customWidth="1"/>
     <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
     <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.125" customWidth="1"/>
-    <col min="11" max="11" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="27.8125" customWidth="1"/>
+    <col min="11" max="11" width="26.0625" customWidth="1"/>
     <col min="12" max="12" width="45" style="2" customWidth="1"/>
     <col min="13" max="13" width="10.75" style="6"/>
     <col min="14" max="14" width="28.5" style="2" customWidth="1"/>
@@ -1538,7 +1562,7 @@
     <col min="17" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1567,10 +1591,10 @@
         <v>21</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L1" t="s">
         <v>2</v>
@@ -1615,7 +1639,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="7"/>
@@ -1627,15 +1651,15 @@
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="J3">
         <v>2020</v>
@@ -1644,11 +1668,8 @@
         <v>2020</v>
       </c>
       <c r="M3" s="22"/>
-      <c r="N3" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1667,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
@@ -1688,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D6" s="2" t="s">
         <v>62</v>
       </c>
@@ -1696,14 +1717,14 @@
         <v>154</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
@@ -1711,7 +1732,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>4</v>
@@ -1727,12 +1748,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C9" s="8"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1743,23 +1764,23 @@
         <v>95</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C11" s="8"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
@@ -1770,7 +1791,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
         <v>67</v>
@@ -1788,11 +1809,14 @@
       <c r="K14">
         <v>2020</v>
       </c>
+      <c r="L14" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="N14" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
       <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
@@ -1800,7 +1824,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
         <v>5</v>
@@ -1816,13 +1840,13 @@
         <v>80</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N16" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
         <v>5</v>
@@ -1844,7 +1868,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B19" s="2" t="s">
         <v>56</v>
       </c>
@@ -1852,27 +1876,27 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C20" s="8"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B21" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C22" s="8"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1880,7 +1904,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
         <v>10</v>
@@ -1894,11 +1918,11 @@
       <c r="G27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="N27" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="157.5" x14ac:dyDescent="0.5">
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
         <v>106</v>
@@ -1913,8 +1937,14 @@
       <c r="L28" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M28" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
@@ -1922,12 +1952,12 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C30" s="8"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C31" s="8"/>
       <c r="D31" s="9" t="s">
         <v>10</v>
@@ -1941,15 +1971,15 @@
       <c r="G31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="N31" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N31" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.5">
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B33" s="2" t="s">
         <v>126</v>
       </c>
@@ -1959,12 +1989,12 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
       <c r="C34" s="8"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
         <v>10</v>
@@ -1979,14 +2009,14 @@
         <v>113</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B37" s="2" t="s">
         <v>126</v>
       </c>
@@ -1996,18 +2026,23 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C38" s="8"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="B38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A39"/>
       <c r="C39" s="8"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A40"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9" t="s">
@@ -2023,10 +2058,10 @@
         <v>128</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D41" s="9" t="s">
         <v>10</v>
       </c>
@@ -2040,10 +2075,10 @@
         <v>130</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A42"/>
       <c r="D42" s="9" t="s">
         <v>10</v>
@@ -2058,10 +2093,10 @@
         <v>138</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D43" s="9" t="s">
         <v>10</v>
       </c>
@@ -2075,10 +2110,10 @@
         <v>139</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B44" s="2" t="s">
         <v>136</v>
       </c>
@@ -2086,12 +2121,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B46" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D47" s="9" t="s">
         <v>10</v>
       </c>
@@ -2099,21 +2134,24 @@
         <v>135</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B48" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.5">
       <c r="D49" s="9" t="s">
         <v>4</v>
       </c>
@@ -2121,36 +2159,36 @@
         <v>140</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B52" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B53" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="2:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="63" x14ac:dyDescent="0.5">
       <c r="B55" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B56" s="2" t="s">
         <v>126</v>
       </c>
@@ -2158,7 +2196,7 @@
       <c r="E56" s="10"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B57" s="2" t="s">
         <v>56</v>
       </c>
@@ -2166,7 +2204,7 @@
       <c r="E57" s="10"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B58" s="2" t="s">
         <v>52</v>
       </c>
@@ -2174,20 +2212,20 @@
       <c r="E58" s="22"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.5">
       <c r="C59" s="9"/>
       <c r="D59" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
       <c r="C60" s="8"/>
       <c r="D60" s="9" t="s">
         <v>10</v>
@@ -2202,17 +2240,17 @@
         <v>144</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B61" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C61" s="8"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B62" s="2" t="s">
         <v>50</v>
       </c>
@@ -2222,7 +2260,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B63" s="10" t="s">
         <v>146</v>
       </c>
@@ -2233,7 +2271,7 @@
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.5">
       <c r="B64" s="10" t="s">
         <v>51</v>
       </c>
@@ -2245,7 +2283,7 @@
       <c r="H64" s="10"/>
       <c r="M64" s="5"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65"/>
       <c r="D65" s="2" t="s">
         <v>76</v>
@@ -2255,7 +2293,7 @@
       </c>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
@@ -2266,7 +2304,7 @@
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B67" s="10"/>
       <c r="C67" s="10"/>
       <c r="D67" s="12"/>
@@ -2275,7 +2313,7 @@
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B68" s="10" t="s">
         <v>119</v>
       </c>
@@ -2286,7 +2324,7 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="12"/>
@@ -2295,7 +2333,7 @@
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
       <c r="D70" s="12"/>
@@ -2304,7 +2342,7 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
       <c r="D71" s="12"/>
@@ -2313,7 +2351,7 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="12"/>
@@ -2322,7 +2360,7 @@
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
       <c r="D73" s="12"/>
@@ -2331,7 +2369,7 @@
       <c r="G73" s="10"/>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
       <c r="D74" s="12"/>
@@ -2340,7 +2378,7 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
       <c r="D75" s="12"/>
@@ -2349,7 +2387,7 @@
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="12"/>
@@ -2358,7 +2396,7 @@
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="12"/>
@@ -2367,42 +2405,42 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="9"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" spans="1:14" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A85" s="23" t="s">
         <v>115</v>
       </c>
@@ -2425,7 +2463,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
       <c r="B86" s="23" t="s">
         <v>119</v>
       </c>
@@ -2434,18 +2472,18 @@
       <c r="K86"/>
       <c r="M86" s="25"/>
     </row>
-    <row r="87" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
       <c r="F87" s="24"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="M87" s="25"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A89" s="2" t="s">
         <v>123</v>
       </c>
@@ -2459,12 +2497,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B91" s="2" t="s">
         <v>119</v>
       </c>
@@ -2472,27 +2510,27 @@
       <c r="E91" s="8"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="9"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.5">
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" spans="1:14" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A96" s="26" t="s">
         <v>120</v>
       </c>
@@ -2509,57 +2547,57 @@
       <c r="K96"/>
       <c r="M96" s="27"/>
     </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="9"/>
     </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="9"/>
     </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="9"/>
     </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="9"/>
     </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="9"/>
     </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="9"/>
     </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="9"/>
     </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="9"/>
     </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:6" x14ac:dyDescent="0.5">
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="9"/>
@@ -2582,10 +2620,10 @@
   <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2593,7 +2631,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2607,7 +2645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2618,7 +2656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2629,7 +2667,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
@@ -2640,7 +2678,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -2651,11 +2689,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2666,7 +2704,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2677,15 +2715,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2696,7 +2734,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2707,10 +2745,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -2724,7 +2762,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -2738,7 +2776,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
@@ -2752,7 +2790,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -2766,7 +2804,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
@@ -2780,7 +2818,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -2794,14 +2832,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -2812,7 +2850,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -2823,7 +2861,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -2834,15 +2872,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
@@ -2853,7 +2891,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
@@ -2864,28 +2902,36 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>135</v>
       </c>
@@ -2896,7 +2942,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>135</v>
       </c>
@@ -2907,7 +2953,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>135</v>
       </c>
@@ -2918,7 +2964,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>135</v>
       </c>
@@ -2926,475 +2972,475 @@
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
@@ -3414,12 +3460,12 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -3433,7 +3479,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="21" t="s">
         <v>43</v>
       </c>
@@ -3468,7 +3514,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -3482,13 +3528,13 @@
         <v>147</v>
       </c>
       <c r="E2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" t="s">
         <v>156</v>
       </c>
-      <c r="F2" t="s">
-        <v>157</v>
-      </c>
       <c r="G2" s="20" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>77</v>
@@ -3497,7 +3543,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H3" s="20"/>
     </row>
   </sheetData>
@@ -3515,14 +3561,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="17" t="s">
         <v>59</v>
       </c>
@@ -3536,7 +3582,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3550,7 +3596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -3571,19 +3617,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3591,25 +3637,37 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="19"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3621,17 +3679,17 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -3639,51 +3697,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="16" t="s">
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="28" t="s">
         <v>67</v>
       </c>
@@ -3691,7 +3749,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="28" t="s">
         <v>62</v>
       </c>
@@ -3699,7 +3757,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="29" t="s">
         <v>10</v>
       </c>
@@ -3707,7 +3765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="29" t="s">
         <v>10</v>
       </c>
@@ -3715,7 +3773,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="28" t="s">
         <v>4</v>
       </c>
@@ -3723,7 +3781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="28" t="s">
         <v>10</v>
       </c>
@@ -3731,7 +3789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="28" t="s">
         <v>67</v>
       </c>
@@ -3739,7 +3797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="28" t="s">
         <v>5</v>
       </c>
@@ -3747,7 +3805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="28" t="s">
         <v>5</v>
       </c>
@@ -3755,7 +3813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="28" t="s">
         <v>10</v>
       </c>
@@ -3763,7 +3821,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="28" t="s">
         <v>106</v>
       </c>
@@ -3771,7 +3829,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="28" t="s">
         <v>10</v>
       </c>
@@ -3779,7 +3837,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="28" t="s">
         <v>10</v>
       </c>
@@ -3787,7 +3845,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="28" t="s">
         <v>10</v>
       </c>
@@ -3795,7 +3853,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="28" t="s">
         <v>10</v>
       </c>
@@ -3803,7 +3861,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="28" t="s">
         <v>10</v>
       </c>
@@ -3811,7 +3869,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="28" t="s">
         <v>10</v>
       </c>
@@ -3819,7 +3877,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="28" t="s">
         <v>4</v>
       </c>
@@ -3827,15 +3885,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="28" t="s">
         <v>65</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="28" t="s">
         <v>10</v>
       </c>
@@ -3843,71 +3901,71 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="32" t="s">
         <v>62</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="32" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="32" t="s">
         <v>62</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="34" t="s">
         <v>65</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="34" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="34" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="34" t="s">
         <v>65</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="31" t="s">
         <v>10</v>
       </c>
@@ -3915,343 +3973,343 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="31" t="s">
         <v>106</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="31" t="s">
         <v>106</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="31" t="s">
         <v>62</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64" s="35" t="s">
         <v>4</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A69" s="35" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
+      <c r="B69" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="B69" s="35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B71" s="35" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A72" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" s="35" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="B72" s="35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B74" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A75" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" s="35" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="35" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A78" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" s="35" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82" s="35" t="s">
         <v>10</v>
       </c>
@@ -4259,7 +4317,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A83" s="35" t="s">
         <v>4</v>
       </c>
@@ -4267,7 +4325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A84" s="35" t="s">
         <v>65</v>
       </c>
@@ -4275,7 +4333,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
     </row>

--- a/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
+++ b/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\rastreio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AB86F9-B698-49AC-8DCF-AC98BCC6AA72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2658886-3247-479C-A262-DCF39CAD95B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1725" windowWidth="15390" windowHeight="9540" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="2610" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="model" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="250">
   <si>
     <t>type</t>
   </si>
@@ -357,9 +357,6 @@
     <t>Temperatura em ºC?</t>
   </si>
   <si>
-    <t>data('temperatura')&lt;46 &amp;&amp; data('temperatura')&gt;34</t>
-  </si>
-  <si>
     <t>decimal</t>
   </si>
   <si>
@@ -516,21 +513,6 @@
     <t>Idade ou data de nascimento?</t>
   </si>
   <si>
-    <t>nota_nomesexo</t>
-  </si>
-  <si>
-    <t>nota_anomes</t>
-  </si>
-  <si>
-    <t>nota_dob</t>
-  </si>
-  <si>
-    <t>nota_acompanhante</t>
-  </si>
-  <si>
-    <t>nota_cs</t>
-  </si>
-  <si>
     <t>cabezado</t>
   </si>
   <si>
@@ -702,6 +684,9 @@
     <t>instance_name</t>
   </si>
   <si>
+    <t>{date_rastreio: data('date_rastreio'), id_rastreio: data('id_rastreio'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), febre: data('febre'), temperatura: data('temperatura'), TDR: data('TDR'), resultado_TDR: data('resultado_TDR'), via_oral: data('via_oral'), desnutrido: data('desnutrido'), paludismo_grave: data('paludismo_grave'), outra_condicao: data('outra_condicao'), especificar_condicao: data('especificar_condicao'), nota_condicao: data('nota_condicao'), consentimento: data('consentimento'), }</t>
+  </si>
+  <si>
     <t>display.adate.fromYear</t>
   </si>
   <si>
@@ -717,9 +702,6 @@
     <t>idade_mes</t>
   </si>
   <si>
-    <t>(data('DOB_ou_idade')=='1')?adate.ageInMonths(data('dn')):(12*data('ano')+data('mes'))</t>
-  </si>
-  <si>
     <t>Que tipo de condição?</t>
   </si>
   <si>
@@ -747,9 +729,6 @@
     <t>calculates.idade_mes()&lt;3 || calculates.idade_mes()&gt;59</t>
   </si>
   <si>
-    <t>calculates.idade_mes()&gt;=3 &amp;&amp; calculates.idade_mes()&lt;=59</t>
-  </si>
-  <si>
     <t>A espera do resultado</t>
   </si>
   <si>
@@ -759,29 +738,73 @@
     <t>revisa o valor introduzido, a temperatura deve ser en grau celsius e nao fahrenheit</t>
   </si>
   <si>
-    <t>adate.today()</t>
-  </si>
-  <si>
-    <t>Data {{calculates.date_rastreio_display}}</t>
+    <t>exclude</t>
+  </si>
+  <si>
+    <t>calculates.exclude()</t>
+  </si>
+  <si>
+    <t>!calculates.exclude()</t>
+  </si>
+  <si>
+    <t>calculates.exclude() || (data('temperatura')&lt;46 &amp;&amp; data('temperatura')&gt;34)</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Data:</t>
+  </si>
+  <si>
+    <t>data('DOB_ou_idade')=='1' ? adate.ageInMonths(data('dn')) : sc.getMonths(data('ano'), data('mes'))</t>
+  </si>
+  <si>
+    <t>goto TDR</t>
   </si>
   <si>
     <t>date_rastreio_display</t>
   </si>
   <si>
-    <t>!adate.hasUncertainty(data('dn'))</t>
-  </si>
-  <si>
-    <t>adate.display(calculates.date_rastreio())</t>
-  </si>
-  <si>
-    <t>{date_rastreio: calculates.date_rastreio(), id_rastreio: data('id_rastreio'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), febre: data('febre'), temperatura: data('temperatura'), TDR: data('TDR'), resultado_TDR: data('resultado_TDR'), via_oral: data('via_oral'), desnutrido: data('desnutrido'), paludismo_grave: data('paludismo_grave'), outra_condicao: data('outra_condicao'), especificar_condicao: data('especificar_condicao'), nota_condicao: data('nota_condicao'), consentimento: data('consentimento'), }</t>
+    <t>adate.display(data('date_rastreio'))</t>
+  </si>
+  <si>
+    <t>dn_display</t>
+  </si>
+  <si>
+    <t>adate.display(data('dn'))</t>
+  </si>
+  <si>
+    <t>Data: {{calculates.date_rastreio_display}}
+Região: {{data.region}}
+Centro de saúde: {{data.cs}}
+Nome da criança: {{data.nome}}
+{{calculates.dn_idade_display}}
+Tem febre: {{calculates.febre_display}}
+Temperatura: {{data.temperatura}}
+Fez TDR e estava a espera do resultado.
+QUAL É O RESULTADO?</t>
+  </si>
+  <si>
+    <t>dn_idade_display</t>
+  </si>
+  <si>
+    <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn() ) : ("Tem " +data('ano')+"anos e " + data('mes') + "meses")</t>
+  </si>
+  <si>
+    <t>febre_display</t>
+  </si>
+  <si>
+    <t>data('febre') == '1' ? 'SIM' : 'NAO'</t>
+  </si>
+  <si>
+    <t>nota_resultado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -850,6 +873,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -945,18 +975,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -965,25 +989,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1002,9 +1011,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1034,6 +1040,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1461,14 +1471,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1479,7 +1489,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1487,7 +1497,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1495,15 +1505,15 @@
         <v>2020061901</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1511,12 +1521,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1532,37 +1542,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y107"/>
+  <dimension ref="A1:Z105"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="33.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="63" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="29.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.8125" customWidth="1"/>
-    <col min="11" max="11" width="26.0625" customWidth="1"/>
-    <col min="12" max="12" width="45" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.75" style="6"/>
-    <col min="14" max="14" width="28.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="17" style="2" customWidth="1"/>
-    <col min="16" max="16" width="60" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="10.75" style="2"/>
+    <col min="6" max="6" width="18.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="45" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="4"/>
+    <col min="11" max="12" width="28.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17" style="2" customWidth="1"/>
+    <col min="14" max="14" width="60" style="2" customWidth="1"/>
+    <col min="15" max="15" width="22.125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="27.875" customWidth="1"/>
+    <col min="17" max="17" width="26.125" customWidth="1"/>
+    <col min="18" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1572,1038 +1582,848 @@
       <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="R1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>35</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>36</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>37</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>38</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>39</v>
-      </c>
-      <c r="X1" t="s">
-        <v>19</v>
       </c>
       <c r="Y1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="D3" s="2" t="s">
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="P6">
+        <v>2020</v>
+      </c>
+      <c r="Q6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7"/>
+      <c r="K7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="O7"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8"/>
+      <c r="K8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17">
+        <v>2014</v>
+      </c>
+      <c r="Q17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L32" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J3">
-        <v>2020</v>
-      </c>
-      <c r="K3">
-        <v>2020</v>
-      </c>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="D4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="N4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F41" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I5"/>
-      <c r="N5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="D6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49"/>
+      <c r="D49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="C9" s="8"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="C11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14">
-        <v>2014</v>
-      </c>
-      <c r="K14">
-        <v>2020</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.5">
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C17" s="8"/>
-      <c r="D17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B19" s="2" t="s">
+      <c r="F58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="C20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="C22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="157.5" x14ac:dyDescent="0.5">
-      <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="C30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="C31" s="8"/>
-      <c r="D31" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B33" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="C34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="C35" s="8"/>
-      <c r="D35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A39"/>
-      <c r="C39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A40"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A42"/>
-      <c r="D42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B44" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B46" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="D49" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B50" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B52" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B53" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" ht="63" x14ac:dyDescent="0.5">
-      <c r="B55" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B56" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="8"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="9"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="9"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="9"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="C59" s="9"/>
-      <c r="D59" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="C60" s="8"/>
-      <c r="D60" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="F61" s="9"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.5">
+    </row>
+    <row r="62" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="15"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="15"/>
+      <c r="F68" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C71" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B63" s="10" t="s">
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="O72" s="15"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="J73" s="3"/>
+      <c r="O73" s="15"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74"/>
+      <c r="D74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.5">
-      <c r="B64" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="M64" s="5"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A65"/>
-      <c r="D65" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B66" s="10" t="s">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B68" s="10" t="s">
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="O75" s="15"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="O76" s="15"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="O77" s="15"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="O78" s="15"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="O79" s="15"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="15"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="O80" s="15"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B81" s="15"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="O81" s="15"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="O82" s="15"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="O83" s="15"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="O84" s="15"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B85" s="15"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="O85" s="15"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B86" s="15"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="O86" s="15"/>
+    </row>
+    <row r="94" spans="1:17" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A94" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J94" s="17"/>
+      <c r="K94" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="P94"/>
+      <c r="Q94"/>
+    </row>
+    <row r="95" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J95" s="17"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+    </row>
+    <row r="96" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J96" s="17"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+    </row>
+    <row r="98" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="9"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="9"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="9"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="9"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="9"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="9"/>
-    </row>
-    <row r="85" spans="1:14" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A85" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="G85" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="M85" s="25"/>
-      <c r="N85" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="B86" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F86" s="24"/>
-      <c r="J86"/>
-      <c r="K86"/>
-      <c r="M86" s="25"/>
-    </row>
-    <row r="87" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="F87" s="24"/>
-      <c r="J87"/>
-      <c r="K87"/>
-      <c r="M87" s="25"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="9"/>
-    </row>
-    <row r="89" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A89" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="9"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="B91" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="9"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="9"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="9"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="9"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="9"/>
-    </row>
-    <row r="96" spans="1:14" s="26" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A96" s="26" t="s">
+      <c r="D105" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F105" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D96" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F96" s="26" t="s">
+      <c r="G105" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G96" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="M96" s="27"/>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="9"/>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="9"/>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="9"/>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="9"/>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="9"/>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="9"/>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="9"/>
-    </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="9"/>
-    </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="9"/>
-    </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="9"/>
-    </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.5">
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="9"/>
+      <c r="J105" s="19"/>
+      <c r="P105"/>
+      <c r="Q105"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
@@ -2623,7 +2443,7 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2631,7 +2451,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2645,7 +2465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2656,7 +2476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2667,7 +2487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
@@ -2678,7 +2498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -2689,11 +2509,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2704,7 +2524,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2715,15 +2535,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2734,7 +2554,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2745,10 +2565,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -2762,7 +2582,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -2776,7 +2596,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
@@ -2790,7 +2610,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -2804,7 +2624,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
@@ -2818,7 +2638,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -2832,14 +2652,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -2850,7 +2670,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -2858,10 +2678,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -2872,575 +2692,575 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A38" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="B38" s="2">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
@@ -3460,12 +3280,12 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -3479,72 +3299,72 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" t="s">
         <v>155</v>
       </c>
-      <c r="F2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="20" t="s">
+      <c r="G2" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
-      <c r="H3" s="20"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3561,28 +3381,28 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3596,7 +3416,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -3617,19 +3437,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3637,36 +3457,60 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+        <v>232</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
         <v>241</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -3677,665 +3521,625 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B22" s="20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="16" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="16" t="s">
+      <c r="B30" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="16" t="s">
+      <c r="B31" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="16" t="s">
+      <c r="B32" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="28" t="s">
+      <c r="B33" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="28" t="s">
+      <c r="B63" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A23" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A26" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A27" s="28" t="s">
+      <c r="B78" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A31" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A32" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A33" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A34" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A35" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A36" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A37" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A38" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A39" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A40" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A41" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A42" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A43" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A44" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A45" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A46" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A47" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A48" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A59" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A60" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A61" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A62" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A63" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="35" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="35" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A68" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A69" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A70" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A71" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="35" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A72" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="B72" s="35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A73" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A74" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A75" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="B75" s="35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A76" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A77" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A78" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="B78" s="35" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A79" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A80" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" s="35" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A81" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A82" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A83" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="B83" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A84" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
+      <c r="B79" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
+++ b/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\rastreio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2658886-3247-479C-A262-DCF39CAD95B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270E8967-AFE2-4B7C-B390-FF467C2494A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2610" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="2760" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="251">
   <si>
     <t>type</t>
   </si>
@@ -788,9 +788,6 @@
     <t>dn_idade_display</t>
   </si>
   <si>
-    <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn() ) : ("Tem " +data('ano')+"anos e " + data('mes') + "meses")</t>
-  </si>
-  <si>
     <t>febre_display</t>
   </si>
   <si>
@@ -798,6 +795,12 @@
   </si>
   <si>
     <t>nota_resultado</t>
+  </si>
+  <si>
+    <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn_display() ) : ("Tem " +data('ano')+" anos e " + data('mes') + " meses")</t>
+  </si>
+  <si>
+    <t>calculates</t>
   </si>
 </sst>
 </file>
@@ -975,7 +978,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -987,9 +990,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1548,7 +1548,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD4"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1582,7 @@
       <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1606,7 +1606,7 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>236</v>
       </c>
       <c r="M1" t="s">
@@ -1615,13 +1615,13 @@
       <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>216</v>
       </c>
       <c r="R1" t="s">
@@ -1662,7 +1662,7 @@
       <c r="G6" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J6" s="15"/>
+      <c r="J6" s="14"/>
       <c r="P6">
         <v>2020</v>
       </c>
@@ -1671,7 +1671,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
@@ -1687,11 +1687,11 @@
       <c r="K7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="11"/>
       <c r="O7"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
@@ -1721,7 +1721,7 @@
       <c r="G9" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="2" t="b">
         <v>1</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>65</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>244</v>
@@ -2150,25 +2150,25 @@
       <c r="B65" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E65" s="15"/>
+      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E66" s="15"/>
+      <c r="E66" s="14"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="15"/>
+      <c r="E67" s="14"/>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="15"/>
+      <c r="E68" s="14"/>
       <c r="F68" s="2" t="s">
         <v>211</v>
       </c>
@@ -2207,27 +2207,27 @@
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="O72" s="15"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="O72" s="14"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
       <c r="J73" s="3"/>
-      <c r="O73" s="15"/>
+      <c r="O73" s="14"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74"/>
@@ -2239,150 +2239,150 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-      <c r="O75" s="15"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="O75" s="14"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-      <c r="O76" s="15"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="O76" s="14"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-      <c r="O77" s="15"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="O77" s="14"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-      <c r="O78" s="15"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="O78" s="14"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-      <c r="O79" s="15"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="O79" s="14"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-      <c r="O80" s="15"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="O80" s="14"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-      <c r="O81" s="15"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="O81" s="14"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-      <c r="O82" s="15"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="O82" s="14"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="O83" s="15"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="O83" s="14"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="O84" s="15"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="O84" s="14"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
-      <c r="O85" s="15"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="O85" s="14"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
-      <c r="O86" s="15"/>
-    </row>
-    <row r="94" spans="1:17" s="16" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="O86" s="14"/>
+    </row>
+    <row r="94" spans="1:17" s="15" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="16" t="s">
+      <c r="D94" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="F94" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G94" s="16" t="s">
+      <c r="G94" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="J94" s="17"/>
-      <c r="K94" s="16" t="s">
+      <c r="J94" s="16"/>
+      <c r="K94" s="15" t="s">
         <v>124</v>
       </c>
       <c r="P94"/>
       <c r="Q94"/>
     </row>
-    <row r="95" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="16" t="s">
+    <row r="95" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="J95" s="17"/>
+      <c r="J95" s="16"/>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
-    <row r="96" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J96" s="17"/>
+    <row r="96" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J96" s="16"/>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
@@ -2405,20 +2405,20 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:17" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
+    <row r="105" spans="1:17" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D105" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F105" s="18" t="s">
+      <c r="F105" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="G105" s="18" t="s">
+      <c r="G105" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="J105" s="19"/>
+      <c r="J105" s="18"/>
       <c r="P105"/>
       <c r="Q105"/>
     </row>
@@ -3282,7 +3282,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3299,38 +3299,38 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3353,10 +3353,10 @@
       <c r="F2" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>77</v>
       </c>
       <c r="I2" t="s">
@@ -3364,7 +3364,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="13"/>
+      <c r="H3" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3388,17 +3388,17 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3439,8 +3439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3477,7 +3477,7 @@
       <c r="A4" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3499,10 +3499,10 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B8" t="s">
         <v>247</v>
-      </c>
-      <c r="B8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3510,7 +3510,7 @@
         <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3521,10 +3521,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3534,612 +3534,682 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="22" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="22" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="22" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="26" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="26" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="23" t="s">
+      <c r="A37" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="22" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="24" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="24" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="24" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="24" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
+      <c r="A48" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="26" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="27" t="s">
+      <c r="A49" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="26" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="27" t="s">
+      <c r="A50" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="26" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="27" t="s">
+      <c r="A51" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="26" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="27" t="s">
+      <c r="A52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="26" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="27" t="s">
+      <c r="A53" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="26" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="27" t="s">
+      <c r="A54" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="27" t="s">
+      <c r="A55" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="26" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="27" t="s">
+      <c r="A56" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="26" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="27" t="s">
+      <c r="A57" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="26" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="27" t="s">
+      <c r="A58" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="26" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
+      <c r="A59" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="26" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="27" t="s">
+      <c r="A60" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="26" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="26" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="26" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+      <c r="A63" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="26" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="26" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="27" t="s">
+      <c r="A65" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="26" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="27" t="s">
+      <c r="A66" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="26" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B67" s="27" t="s">
+      <c r="B67" s="26" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="26" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="26" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B70" s="27" t="s">
+      <c r="B70" s="26" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="27" t="s">
+      <c r="A71" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="26" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="27" t="s">
+      <c r="A72" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="26" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="B73" s="27" t="s">
+      <c r="B73" s="26" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="27" t="s">
+      <c r="A74" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="26" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="26" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="27" t="s">
+      <c r="A76" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="26" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="27" t="s">
+      <c r="A77" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="26" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B88" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="2"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
+++ b/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\rastreio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270E8967-AFE2-4B7C-B390-FF467C2494A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76343912-42E8-4C88-AACE-5F68DAF936D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="2760" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="254">
   <si>
     <t>type</t>
   </si>
@@ -402,9 +402,6 @@
     <t>ending</t>
   </si>
   <si>
-    <t>survey_complete</t>
-  </si>
-  <si>
     <t>A exibição agora está completa, por favor, vá para a próxima página para finalizar suas respostas.</t>
   </si>
   <si>
@@ -504,12 +501,6 @@
     <t>id_rastreio</t>
   </si>
   <si>
-    <t>id_rastreio=?</t>
-  </si>
-  <si>
-    <t>[data('id_rastreio')]</t>
-  </si>
-  <si>
     <t>Idade ou data de nascimento?</t>
   </si>
   <si>
@@ -682,9 +673,6 @@
   </si>
   <si>
     <t>instance_name</t>
-  </si>
-  <si>
-    <t>{date_rastreio: data('date_rastreio'), id_rastreio: data('id_rastreio'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), febre: data('febre'), temperatura: data('temperatura'), TDR: data('TDR'), resultado_TDR: data('resultado_TDR'), via_oral: data('via_oral'), desnutrido: data('desnutrido'), paludismo_grave: data('paludismo_grave'), outra_condicao: data('outra_condicao'), especificar_condicao: data('especificar_condicao'), nota_condicao: data('nota_condicao'), consentimento: data('consentimento'), }</t>
   </si>
   <si>
     <t>display.adate.fromYear</t>
@@ -800,7 +788,28 @@
     <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn_display() ) : ("Tem " +data('ano')+" anos e " + data('mes') + " meses")</t>
   </si>
   <si>
-    <t>calculates</t>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>id_visita</t>
+  </si>
+  <si>
+    <t>Comentario</t>
+  </si>
+  <si>
+    <t>comentario</t>
+  </si>
+  <si>
+    <t>comentario2</t>
+  </si>
+  <si>
+    <t>[data('_id')]</t>
+  </si>
+  <si>
+    <t>_id=?</t>
+  </si>
+  <si>
+    <t>{date_rastreio: data('date_rastreio'), id_rastreio: data('id_rastreio'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), febre: data('febre'), temperatura: data('temperatura'), TDR: data('TDR'), resultado_TDR: data('resultado_TDR'), via_oral: data('via_oral'), desnutrido: data('desnutrido'), paludismo_grave: data('paludismo_grave'), outra_condicao: data('outra_condicao'), especificar_condicao: data('especificar_condicao'), nota_condicao: data('nota_condicao'), consentimento: data('consentimento'), rastreioID_completo: data('_id')}</t>
   </si>
 </sst>
 </file>
@@ -978,7 +987,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -990,9 +999,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1510,7 +1516,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1523,10 +1529,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1542,13 +1548,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z105"/>
+  <dimension ref="A1:Z106"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="A106" sqref="A106:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1582,7 +1588,7 @@
       <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1606,8 +1612,8 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>236</v>
+      <c r="L1" s="26" t="s">
+        <v>232</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -1615,14 +1621,14 @@
       <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>216</v>
+      <c r="P1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="R1" t="s">
         <v>33</v>
@@ -1657,12 +1663,12 @@
         <v>67</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="J6" s="14"/>
+        <v>233</v>
+      </c>
+      <c r="J6" s="13"/>
       <c r="P6">
         <v>2020</v>
       </c>
@@ -1671,355 +1677,355 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="M7" s="4"/>
+      <c r="N7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="X7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7"/>
-      <c r="K7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" t="s">
-        <v>89</v>
-      </c>
       <c r="G8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H8"/>
       <c r="K8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
-        <v>150</v>
-      </c>
+      <c r="L8" s="10"/>
+      <c r="O8"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J9" s="14"/>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9"/>
       <c r="K9" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="O9" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D11" s="2" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="2" t="b">
+      <c r="K12" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="2" t="b">
+      <c r="G14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="2" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D17" s="2" t="s">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>2014</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+    <row r="21" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="2" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="D32" s="2" t="s">
+      <c r="K32" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="I33" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="L33" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="2" t="s">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48"/>
+      <c r="C48" s="2" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="D49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>209</v>
-      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50"/>
       <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
@@ -2027,17 +2033,16 @@
         <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51"/>
       <c r="D51" s="2" t="s">
         <v>10</v>
       </c>
@@ -2045,16 +2050,17 @@
         <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52"/>
       <c r="D52" s="2" t="s">
         <v>10</v>
       </c>
@@ -2062,365 +2068,385 @@
         <v>47</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
+      <c r="G59" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K59" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F56" s="2" t="s">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="63" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="B64" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65" s="14"/>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E66" s="14"/>
+        <v>124</v>
+      </c>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="14"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D69" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="14"/>
-      <c r="F68" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="D69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="13"/>
+      <c r="F69" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>55</v>
+      <c r="K70" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="13" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="14" t="s">
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="O73" s="13"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="J74" s="3"/>
+      <c r="O74" s="13"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75"/>
+      <c r="D75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="O72" s="14"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="J73" s="3"/>
-      <c r="O73" s="14"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74"/>
-      <c r="D74" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="14" t="s">
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="O75" s="14"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="O76" s="14"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="O76" s="13"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="O77" s="13"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="O77" s="14"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="O78" s="14"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="O78" s="13"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="O79" s="14"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="O79" s="13"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="O80" s="14"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="O80" s="13"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="O81" s="14"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="O81" s="13"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="O82" s="14"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="O82" s="13"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="O83" s="14"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="O83" s="13"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="O84" s="14"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="O84" s="13"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="O85" s="14"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="O85" s="13"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="O86" s="14"/>
-    </row>
-    <row r="94" spans="1:17" s="15" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A94" s="15" t="s">
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="O86" s="13"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="O87" s="13"/>
+    </row>
+    <row r="95" spans="1:17" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A95" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="15" t="s">
+      <c r="D95" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="F95" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="G95" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="J94" s="16"/>
-      <c r="K94" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="P94"/>
-      <c r="Q94"/>
-    </row>
-    <row r="95" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="J95" s="16"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="14" t="s">
+        <v>123</v>
+      </c>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
-    <row r="96" spans="1:17" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J96" s="16"/>
+    <row r="96" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J96" s="15"/>
       <c r="P96"/>
       <c r="Q96"/>
     </row>
-    <row r="98" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="97" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J97" s="15"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+    </row>
+    <row r="99" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="2" t="s">
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D106" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F105" s="17" t="s">
+      <c r="F106" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G106" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G105" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="J105" s="18"/>
-      <c r="P105"/>
-      <c r="Q105"/>
+      <c r="H106" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="J106" s="17"/>
+      <c r="P106"/>
+      <c r="Q106"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2730,7 +2756,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2753,46 +2779,46 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B35" s="2">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B36" s="2">
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37" s="2">
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" s="2">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3280,9 +3306,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3299,72 +3325,72 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="H2" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="12"/>
+      <c r="H3" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3388,17 +3414,17 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3437,10 +3463,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3459,58 +3485,58 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>246</v>
+      <c r="A8" t="s">
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
         <v>245</v>
-      </c>
-      <c r="B9" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3521,10 +3547,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:B88"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3534,682 +3560,624 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>147</v>
+      <c r="B4" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>153</v>
+      <c r="B5" s="18" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>126</v>
+      <c r="A17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>128</v>
+      <c r="A18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>130</v>
+      <c r="A19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>134</v>
+      <c r="A20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>139</v>
+      <c r="B21" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>211</v>
+      <c r="B22" s="18" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>142</v>
+      <c r="A23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="B38" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="B39" s="21" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="B41" s="21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="B48" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="B61" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="26" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
+      <c r="B62" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="B68" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+      <c r="B78" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="26" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B67" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B70" s="26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="26" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
+      <c r="B79" s="25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="B80" s="25" t="s">
         <v>250</v>
       </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="B81" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B88" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
-      <c r="D89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
+        <v>247</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
+++ b/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\rastreio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76343912-42E8-4C88-AACE-5F68DAF936D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C690D656-C2B3-4270-B2CF-1E71B7969B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1530" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -803,13 +803,13 @@
     <t>comentario2</t>
   </si>
   <si>
-    <t>[data('_id')]</t>
-  </si>
-  <si>
     <t>_id=?</t>
   </si>
   <si>
-    <t>{date_rastreio: data('date_rastreio'), id_rastreio: data('id_rastreio'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), febre: data('febre'), temperatura: data('temperatura'), TDR: data('TDR'), resultado_TDR: data('resultado_TDR'), via_oral: data('via_oral'), desnutrido: data('desnutrido'), paludismo_grave: data('paludismo_grave'), outra_condicao: data('outra_condicao'), especificar_condicao: data('especificar_condicao'), nota_condicao: data('nota_condicao'), consentimento: data('consentimento'), rastreioID_completo: data('_id')}</t>
+    <t>{date_rastreio: data('date_rastreio'), id_rastreio: data('id_rastreio'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), febre: data('febre'), temperatura: data('temperatura'), TDR: data('TDR'), resultado_TDR: data('resultado_TDR'), via_oral: data('via_oral'), desnutrido: data('desnutrido'), paludismo_grave: data('paludismo_grave'), outra_condicao: data('outra_condicao'), especificar_condicao: data('especificar_condicao'), nota_condicao: data('nota_condicao'), consentimento: data('consentimento'), rastreioID_completo: opendatakit.getCurrentInstanceId()}</t>
+  </si>
+  <si>
+    <t>[ data('rastreioID_completo') ]</t>
   </si>
 </sst>
 </file>
@@ -3308,7 +3308,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3374,13 +3374,13 @@
         <v>145</v>
       </c>
       <c r="E2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="F2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>253</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>77</v>

--- a/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
+++ b/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\rastreio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C690D656-C2B3-4270-B2CF-1E71B7969B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344B6324-4419-4A37-B2DC-5E576797A46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1530" windowWidth="27360" windowHeight="19080" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="261">
   <si>
     <t>type</t>
   </si>
@@ -528,9 +528,6 @@
     <t>nota_mes</t>
   </si>
   <si>
-    <t>altura</t>
-  </si>
-  <si>
     <t>peso</t>
   </si>
   <si>
@@ -735,21 +732,12 @@
     <t>!calculates.exclude()</t>
   </si>
   <si>
-    <t>calculates.exclude() || (data('temperatura')&lt;46 &amp;&amp; data('temperatura')&gt;34)</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
-    <t>Data:</t>
-  </si>
-  <si>
     <t>data('DOB_ou_idade')=='1' ? adate.ageInMonths(data('dn')) : sc.getMonths(data('ano'), data('mes'))</t>
   </si>
   <si>
-    <t>goto TDR</t>
-  </si>
-  <si>
     <t>date_rastreio_display</t>
   </si>
   <si>
@@ -762,17 +750,6 @@
     <t>adate.display(data('dn'))</t>
   </si>
   <si>
-    <t>Data: {{calculates.date_rastreio_display}}
-Região: {{data.region}}
-Centro de saúde: {{data.cs}}
-Nome da criança: {{data.nome}}
-{{calculates.dn_idade_display}}
-Tem febre: {{calculates.febre_display}}
-Temperatura: {{data.temperatura}}
-Fez TDR e estava a espera do resultado.
-QUAL É O RESULTADO?</t>
-  </si>
-  <si>
     <t>dn_idade_display</t>
   </si>
   <si>
@@ -782,9 +759,6 @@
     <t>data('febre') == '1' ? 'SIM' : 'NAO'</t>
   </si>
   <si>
-    <t>nota_resultado</t>
-  </si>
-  <si>
     <t>data('DOB_ou_idade')=='1' ? ("Data de nascimento é " + calculates.dn_display() ) : ("Tem " +data('ano')+" anos e " + data('mes') + " meses")</t>
   </si>
   <si>
@@ -810,6 +784,45 @@
   </si>
   <si>
     <t>[ data('rastreioID_completo') ]</t>
+  </si>
+  <si>
+    <t>adate.today()</t>
+  </si>
+  <si>
+    <t>hoje</t>
+  </si>
+  <si>
+    <t>hoje_display</t>
+  </si>
+  <si>
+    <t>adate.display(calculates.hoje())</t>
+  </si>
+  <si>
+    <t>texto_display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A crianca não pode entrar no estudo por ter  {{calculates.idade_mes}} meses que é {{calculates.texto_diplay}} </t>
+  </si>
+  <si>
+    <t>Data:{{calculates.hoje_display}}</t>
+  </si>
+  <si>
+    <t>Só deve abrir a ficha se fez TDR</t>
+  </si>
+  <si>
+    <t>Só deve abrir a ficha se tiver TDR positivo</t>
+  </si>
+  <si>
+    <t>mostra_data</t>
+  </si>
+  <si>
+    <t>calculates.idade_mes()&lt;3 ? ("Menor que 3 meses") : calculates.idade_mes()&gt;59 ? ("Maior de 59 meses") : ("")</t>
+  </si>
+  <si>
+    <t>MUAC</t>
+  </si>
+  <si>
+    <t>calculates.exclude() || (data('temperatura')&lt;46 &amp;&amp; data('temperatura')&gt;34) || (data('temperatura')=='88')</t>
   </si>
 </sst>
 </file>
@@ -1477,14 +1490,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1495,7 +1508,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1516,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1511,7 +1524,7 @@
         <v>2020061901</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1519,7 +1532,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1527,9 +1540,9 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
         <v>152</v>
@@ -1548,16 +1561,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z106"/>
+  <dimension ref="A1:Z104"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A106" sqref="A106:XFD106"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="2" customWidth="1"/>
@@ -1568,7 +1581,7 @@
     <col min="7" max="7" width="54.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="29.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="45" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.75" style="4"/>
+    <col min="10" max="10" width="27.875" style="4" customWidth="1"/>
     <col min="11" max="12" width="28.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" customWidth="1"/>
     <col min="14" max="14" width="60" style="2" customWidth="1"/>
@@ -1578,7 +1591,7 @@
     <col min="18" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1613,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -1625,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="R1" t="s">
         <v>33</v>
@@ -1658,373 +1671,445 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>146</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="J6" s="13"/>
+      <c r="N6" s="2" t="s">
+        <v>248</v>
+      </c>
       <c r="P6">
         <v>2020</v>
       </c>
       <c r="Q6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
       <c r="D7" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J7" s="2"/>
       <c r="M7" s="4"/>
       <c r="N7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="X7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="M8" s="4"/>
+      <c r="N8"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>147</v>
-      </c>
-      <c r="H8"/>
-      <c r="K8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="10"/>
-      <c r="O8"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" t="s">
-        <v>148</v>
       </c>
       <c r="H9"/>
       <c r="K9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="O9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J10" s="13"/>
+      <c r="L9" s="10"/>
+      <c r="O9"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10"/>
       <c r="K10" s="2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="O10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="B12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="K14" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="D20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P18">
+      <c r="P20">
         <v>2014</v>
       </c>
-      <c r="Q18">
+      <c r="Q20">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D20" s="2" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D21" s="2" t="s">
+    <row r="23" spans="2:17" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
       <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+      <c r="B29" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B34" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="D35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="2" t="s">
+    <row r="36" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="D36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="L36" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B37" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="D39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="D33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="L33" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="F39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B41" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="B46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A47"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A48"/>
+      <c r="D48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="F48" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K48" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="K45" s="2" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="D49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A50"/>
       <c r="D50" s="2" t="s">
         <v>10</v>
@@ -2033,16 +2118,16 @@
         <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
       <c r="D51" s="2" t="s">
         <v>10</v>
       </c>
@@ -2050,72 +2135,59 @@
         <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="D52" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F53" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B54" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="D55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="F55" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B56" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
       <c r="D57" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>216</v>
@@ -2124,146 +2196,144 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
       <c r="B58" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B60" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B61" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+      <c r="B63" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="B64" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B66" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="D67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" s="13"/>
+      <c r="F67" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="47.25" x14ac:dyDescent="0.5">
+      <c r="D68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B69" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B70" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B71" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="O71" s="13"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B72" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="J72" s="3"/>
+      <c r="O72" s="13"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A73"/>
+      <c r="D73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B74" s="13" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="63" x14ac:dyDescent="0.25">
-      <c r="B65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B67" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E67" s="13"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B68" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E68" s="13"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D69" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="D70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="O73" s="13"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
-      <c r="J74" s="3"/>
       <c r="O74" s="13"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75"/>
-      <c r="D75" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="O75" s="13"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B76" s="13" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -2272,7 +2342,7 @@
       <c r="G76" s="13"/>
       <c r="O76" s="13"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -2281,10 +2351,8 @@
       <c r="G77" s="13"/>
       <c r="O77" s="13"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="13" t="s">
-        <v>118</v>
-      </c>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
@@ -2292,7 +2360,7 @@
       <c r="G78" s="13"/>
       <c r="O78" s="13"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -2301,7 +2369,7 @@
       <c r="G79" s="13"/>
       <c r="O79" s="13"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -2310,7 +2378,7 @@
       <c r="G80" s="13"/>
       <c r="O80" s="13"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -2319,7 +2387,7 @@
       <c r="G81" s="13"/>
       <c r="O81" s="13"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -2328,7 +2396,7 @@
       <c r="G82" s="13"/>
       <c r="O82" s="13"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -2337,7 +2405,7 @@
       <c r="G83" s="13"/>
       <c r="O83" s="13"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -2346,7 +2414,7 @@
       <c r="G84" s="13"/>
       <c r="O84" s="13"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -2355,98 +2423,77 @@
       <c r="G85" s="13"/>
       <c r="O85" s="13"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="O86" s="13"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="O87" s="13"/>
-    </row>
-    <row r="95" spans="1:17" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A95" s="14" t="s">
+    <row r="93" spans="1:17" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.5">
+      <c r="A93" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D95" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="14" t="s">
+      <c r="D93" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F95" s="14" t="s">
+      <c r="F93" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G93" s="14" t="s">
         <v>117</v>
       </c>
+      <c r="J93" s="15"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+    </row>
+    <row r="94" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="B94" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J94" s="15"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+    </row>
+    <row r="95" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.5">
       <c r="J95" s="15"/>
-      <c r="K95" s="14" t="s">
-        <v>123</v>
-      </c>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
-    <row r="96" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="14" t="s">
+    <row r="97" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A97" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="B99" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J96" s="15"/>
-      <c r="P96"/>
-      <c r="Q96"/>
-    </row>
-    <row r="97" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J97" s="15"/>
-      <c r="P97"/>
-      <c r="Q97"/>
-    </row>
-    <row r="99" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D99" s="2" t="s">
+    </row>
+    <row r="104" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A104" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D104" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D106" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="G106" s="16" t="s">
+      <c r="F104" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="G104" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H106" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="J106" s="17"/>
-      <c r="P106"/>
-      <c r="Q106"/>
+      <c r="H104" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="J104" s="17"/>
+      <c r="P104"/>
+      <c r="Q104"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2469,7 +2516,7 @@
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2477,7 +2524,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2491,7 +2538,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2502,7 +2549,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2513,7 +2560,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
@@ -2524,7 +2571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
@@ -2535,11 +2582,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2550,7 +2597,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2561,15 +2608,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2580,7 +2627,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2591,10 +2638,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -2608,7 +2655,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -2622,7 +2669,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
@@ -2636,7 +2683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>89</v>
       </c>
@@ -2650,7 +2697,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="1" t="s">
         <v>89</v>
       </c>
@@ -2664,7 +2711,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -2678,14 +2725,14 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
@@ -2696,7 +2743,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -2707,7 +2754,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>100</v>
       </c>
@@ -2718,15 +2765,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>108</v>
       </c>
@@ -2737,7 +2784,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>108</v>
       </c>
@@ -2748,7 +2795,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
@@ -2756,10 +2803,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="2" t="s">
         <v>115</v>
       </c>
@@ -2770,14 +2817,14 @@
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
         <v>133</v>
       </c>
@@ -2788,7 +2835,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>133</v>
       </c>
@@ -2799,7 +2846,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
         <v>133</v>
       </c>
@@ -2810,7 +2857,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
         <v>133</v>
       </c>
@@ -2818,475 +2865,475 @@
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A71" s="1"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A75" s="1"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A137" s="1"/>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A138" s="1"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A237" s="1"/>
       <c r="C237" s="1"/>
     </row>
@@ -3306,12 +3353,12 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -3325,7 +3372,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
@@ -3360,7 +3407,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -3374,13 +3421,13 @@
         <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>77</v>
@@ -3389,7 +3436,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="H3" s="11"/>
     </row>
   </sheetData>
@@ -3407,14 +3454,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>59</v>
       </c>
@@ -3428,7 +3475,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3442,7 +3489,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -3463,19 +3510,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3483,60 +3530,88 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" t="s">
         <v>213</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
         <v>236</v>
       </c>
-      <c r="B5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B12" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" t="s">
-        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3549,17 +3624,17 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79:B82"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3567,19 +3642,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
@@ -3587,7 +3662,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
@@ -3595,7 +3670,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
@@ -3603,7 +3678,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
@@ -3611,7 +3686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
@@ -3619,7 +3694,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>67</v>
       </c>
@@ -3627,7 +3702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
@@ -3635,7 +3710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
@@ -3643,7 +3718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
@@ -3651,7 +3726,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" s="18" t="s">
         <v>105</v>
       </c>
@@ -3659,7 +3734,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="18" t="s">
         <v>10</v>
       </c>
@@ -3667,7 +3742,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
@@ -3675,7 +3750,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" s="18" t="s">
         <v>10</v>
       </c>
@@ -3683,7 +3758,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="18" t="s">
         <v>10</v>
       </c>
@@ -3691,7 +3766,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" s="18" t="s">
         <v>10</v>
       </c>
@@ -3699,7 +3774,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
@@ -3707,7 +3782,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="18" t="s">
         <v>4</v>
       </c>
@@ -3715,15 +3790,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
         <v>10</v>
       </c>
@@ -3731,7 +3806,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26" s="21" t="s">
         <v>65</v>
       </c>
@@ -3739,7 +3814,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
         <v>62</v>
       </c>
@@ -3747,7 +3822,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
         <v>62</v>
       </c>
@@ -3755,7 +3830,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
         <v>62</v>
       </c>
@@ -3763,7 +3838,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="24" t="s">
         <v>65</v>
       </c>
@@ -3771,7 +3846,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="24" t="s">
         <v>65</v>
       </c>
@@ -3779,7 +3854,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="24" t="s">
         <v>65</v>
       </c>
@@ -3787,7 +3862,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="24" t="s">
         <v>65</v>
       </c>
@@ -3795,7 +3870,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="21" t="s">
         <v>10</v>
       </c>
@@ -3803,343 +3878,343 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B36" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A49" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="25" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="25" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A50" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="25" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A51" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="25" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A52" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="25" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A53" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="25" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A54" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="25" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A55" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="25" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A56" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="25" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A57" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="25" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A58" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="25" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A60" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="25" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B63" s="25" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A64" s="25" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
+      <c r="B64" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="B64" s="25" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A65" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="25" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="25" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A66" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="25" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="25" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A67" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" s="25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A70" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" s="25" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="B70" s="25" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A71" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="25" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="25" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A72" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="25" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="25" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A73" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" s="25" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="B73" s="25" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A74" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="25" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B75" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A76" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="25" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77" s="25" t="s">
         <v>10</v>
       </c>
@@ -4147,7 +4222,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78" s="25" t="s">
         <v>4</v>
       </c>
@@ -4155,28 +4230,28 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
+++ b/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\rastreio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344B6324-4419-4A37-B2DC-5E576797A46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E1046-CC03-4E9F-B68C-6F08BF18B514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="16440" windowHeight="4875" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="259">
   <si>
     <t>type</t>
   </si>
@@ -300,12 +300,6 @@
     <t>Bambadinca</t>
   </si>
   <si>
-    <t>Cossé</t>
-  </si>
-  <si>
-    <t>Mafanco</t>
-  </si>
-  <si>
     <t>Pitche</t>
   </si>
   <si>
@@ -315,15 +309,9 @@
     <t>bambadinca</t>
   </si>
   <si>
-    <t>mafanco</t>
-  </si>
-  <si>
     <t>pitche</t>
   </si>
   <si>
-    <t>cosse</t>
-  </si>
-  <si>
     <t>rastreio</t>
   </si>
   <si>
@@ -714,9 +702,6 @@
     <t>calculates.idade_mes()&lt;3 || calculates.idade_mes()&gt;59</t>
   </si>
   <si>
-    <t>A espera do resultado</t>
-  </si>
-  <si>
     <t>data('resultado_TDR')=='3'</t>
   </si>
   <si>
@@ -822,7 +807,16 @@
     <t>MUAC</t>
   </si>
   <si>
-    <t>calculates.exclude() || (data('temperatura')&lt;46 &amp;&amp; data('temperatura')&gt;34) || (data('temperatura')=='88')</t>
+    <t>ganmamudo</t>
+  </si>
+  <si>
+    <t>Gã-Mamudo</t>
+  </si>
+  <si>
+    <t>sonaco</t>
+  </si>
+  <si>
+    <t>Sonaco</t>
   </si>
 </sst>
 </file>
@@ -1490,14 +1484,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1508,15 +1502,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1524,28 +1518,28 @@
         <v>2020061901</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1563,14 +1557,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="2" customWidth="1"/>
@@ -1591,7 +1585,7 @@
     <col min="18" max="16384" width="10.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -1626,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -1638,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="R1" t="s">
         <v>33</v>
@@ -1671,24 +1665,24 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J6" s="13"/>
       <c r="N6" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P6">
         <v>2020</v>
@@ -1700,39 +1694,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J7" s="2"/>
       <c r="M7" s="4"/>
       <c r="N7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="X7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="J8" s="2"/>
       <c r="M8" s="4"/>
       <c r="N8"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1743,7 +1737,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H9"/>
       <c r="K9" s="2" t="b">
@@ -1752,54 +1746,54 @@
       <c r="L9" s="10"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H10"/>
       <c r="K10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
@@ -1813,37 +1807,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K16" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
         <v>67</v>
       </c>
@@ -1854,7 +1848,7 @@
         <v>25</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P20">
         <v>2014</v>
@@ -1863,12 +1857,12 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>5</v>
       </c>
@@ -1882,13 +1876,13 @@
         <v>80</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="31.5" x14ac:dyDescent="0.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1905,58 +1899,58 @@
         <v>78</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.5">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="31.5" x14ac:dyDescent="0.5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1964,44 +1958,38 @@
         <v>47</v>
       </c>
       <c r="F35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="D36" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="L36" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
@@ -2009,72 +1997,72 @@
         <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="B41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="D43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="I43" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="D48" s="2" t="s">
         <v>10</v>
@@ -2083,16 +2071,16 @@
         <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D49" s="2" t="s">
         <v>10</v>
       </c>
@@ -2100,16 +2088,16 @@
         <v>47</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="D50" s="2" t="s">
         <v>10</v>
@@ -2118,16 +2106,16 @@
         <v>47</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D51" s="2" t="s">
         <v>10</v>
       </c>
@@ -2135,121 +2123,121 @@
         <v>47</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="K51" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.5">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D57" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.5">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="63" x14ac:dyDescent="0.5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E64" s="13"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E66" s="13"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D67" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="47.25" x14ac:dyDescent="0.5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D68" s="2" t="s">
         <v>10</v>
       </c>
@@ -2257,31 +2245,31 @@
         <v>47</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B71" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -2290,7 +2278,7 @@
       <c r="G71" s="13"/>
       <c r="O71" s="13"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B72" s="13" t="s">
         <v>51</v>
       </c>
@@ -2302,16 +2290,16 @@
       <c r="J72" s="3"/>
       <c r="O72" s="13"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="D73" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B74" s="13" t="s">
         <v>56</v>
       </c>
@@ -2322,7 +2310,7 @@
       <c r="G74" s="13"/>
       <c r="O74" s="13"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -2331,9 +2319,9 @@
       <c r="G75" s="13"/>
       <c r="O75" s="13"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -2342,7 +2330,7 @@
       <c r="G76" s="13"/>
       <c r="O76" s="13"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -2351,7 +2339,7 @@
       <c r="G77" s="13"/>
       <c r="O77" s="13"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -2360,7 +2348,7 @@
       <c r="G78" s="13"/>
       <c r="O78" s="13"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -2369,7 +2357,7 @@
       <c r="G79" s="13"/>
       <c r="O79" s="13"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -2378,7 +2366,7 @@
       <c r="G80" s="13"/>
       <c r="O80" s="13"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -2387,7 +2375,7 @@
       <c r="G81" s="13"/>
       <c r="O81" s="13"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -2396,7 +2384,7 @@
       <c r="G82" s="13"/>
       <c r="O82" s="13"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -2405,7 +2393,7 @@
       <c r="G83" s="13"/>
       <c r="O83" s="13"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -2414,7 +2402,7 @@
       <c r="G84" s="13"/>
       <c r="O84" s="13"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -2423,42 +2411,42 @@
       <c r="G85" s="13"/>
       <c r="O85" s="13"/>
     </row>
-    <row r="93" spans="1:17" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:17" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D93" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="J93" s="15"/>
       <c r="P93"/>
       <c r="Q93"/>
     </row>
-    <row r="94" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="J94" s="15"/>
       <c r="P94"/>
       <c r="Q94"/>
     </row>
-    <row r="95" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J95" s="15"/>
       <c r="P95"/>
       <c r="Q95"/>
     </row>
-    <row r="97" spans="1:17" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>4</v>
@@ -2467,29 +2455,29 @@
         <v>66</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B99" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D104" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="J104" s="17"/>
       <c r="P104"/>
@@ -2510,13 +2498,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D237"/>
+  <dimension ref="A1:D236"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.5" style="2"/>
@@ -2524,7 +2512,7 @@
     <col min="5" max="16384" width="21.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2538,7 +2526,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -2549,7 +2537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2560,9 +2548,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2571,9 +2559,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -2582,11 +2570,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2597,7 +2585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2608,15 +2596,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,7 +2615,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -2638,12 +2626,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>82</v>
@@ -2655,12 +2643,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>85</v>
@@ -2669,23 +2657,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>255</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="D17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>83</v>
@@ -2697,645 +2685,634 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
       <c r="D19" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="2">
         <v>3</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A35" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A36" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="2">
-        <v>2</v>
-      </c>
       <c r="C36" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B37" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A38" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B38" s="2">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.5">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.5">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="C214" s="1"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="C215" s="1"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="C216" s="1"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="C217" s="1"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="C223" s="1"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="C224" s="1"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="C226" s="1"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="C227" s="1"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="C228" s="1"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="C229" s="1"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="C236" s="1"/>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A237" s="1"/>
-      <c r="C237" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3358,7 +3335,7 @@
       <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="16.375" customWidth="1"/>
@@ -3372,7 +3349,7 @@
     <col min="11" max="11" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>43</v>
       </c>
@@ -3407,36 +3384,36 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H3" s="11"/>
     </row>
   </sheetData>
@@ -3454,14 +3431,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>59</v>
       </c>
@@ -3475,7 +3452,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -3489,7 +3466,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -3516,13 +3493,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="2" max="2" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -3530,88 +3507,88 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
         <v>234</v>
-      </c>
-      <c r="B10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3628,13 +3605,13 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3642,27 +3619,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
@@ -3670,15 +3647,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>4</v>
       </c>
@@ -3686,15 +3663,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>67</v>
       </c>
@@ -3702,7 +3679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>5</v>
       </c>
@@ -3710,7 +3687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
@@ -3718,159 +3695,159 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" s="18" t="s">
-        <v>105</v>
-      </c>
       <c r="B14" s="18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="18" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>10</v>
       </c>
@@ -3878,351 +3855,351 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="25" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A49" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="25" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" s="25" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A50" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="25" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A51" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="25" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A52" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="25" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A53" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="25" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="25" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A54" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="25" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A55" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A56" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A57" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A58" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B63" s="25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="25" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A64" s="25" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A65" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A66" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A67" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" s="25" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A70" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B70" s="25" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="25" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A71" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A72" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A73" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A74" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>4</v>
       </c>
@@ -4230,28 +4207,28 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
+++ b/app/config/tables/rastreio/forms/rastreio/rastreio.xlsx
@@ -5,21 +5,20 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celso\odkx\AQSPtest1\app\config\tables\rastreio\forms\rastreio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emil\Code\ODKX\celsos\app\config\tables\rastreio\forms\rastreio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4E1046-CC03-4E9F-B68C-6F08BF18B514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19573D4-7D6A-4143-804B-02B2DFA40070}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="16440" windowHeight="4875" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="3" r:id="rId1"/>
     <sheet name="survey" sheetId="1" r:id="rId2"/>
     <sheet name="choices" sheetId="2" r:id="rId3"/>
-    <sheet name="queries" sheetId="5" r:id="rId4"/>
-    <sheet name="prompt_types" sheetId="6" r:id="rId5"/>
-    <sheet name="calculates" sheetId="8" r:id="rId6"/>
-    <sheet name="model" sheetId="4" r:id="rId7"/>
+    <sheet name="prompt_types" sheetId="6" r:id="rId4"/>
+    <sheet name="calculates" sheetId="8" r:id="rId5"/>
+    <sheet name="model" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">survey!$D$1:$J$1</definedName>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="189">
   <si>
     <t>type</t>
   </si>
@@ -162,18 +161,6 @@
     <t>hideInContents</t>
   </si>
   <si>
-    <t>callback</t>
-  </si>
-  <si>
-    <t>uri</t>
-  </si>
-  <si>
-    <t>query_type</t>
-  </si>
-  <si>
-    <t>query_name</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -249,33 +236,6 @@
     <t>Save only mm.dd.yyyy with support for ?? at all positions</t>
   </si>
   <si>
-    <t>linked_form_id</t>
-  </si>
-  <si>
-    <t>linked_table_id</t>
-  </si>
-  <si>
-    <t>selection</t>
-  </si>
-  <si>
-    <t>selectionArgs</t>
-  </si>
-  <si>
-    <t>newRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>openRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t>fieldName</t>
-  </si>
-  <si>
-    <t>linked_table</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
     <t>data('mes')&lt;12</t>
   </si>
   <si>
@@ -393,12 +353,6 @@
     <t>A exibição agora está completa, por favor, vá para a próxima página para finalizar suas respostas.</t>
   </si>
   <si>
-    <t>recusa</t>
-  </si>
-  <si>
-    <t>Eu entendo que você não quer participar deste estudo. Você poderia me dizer porque você não gostaria de participar?</t>
-  </si>
-  <si>
     <t>data('TDR')=='2'</t>
   </si>
   <si>
@@ -462,12 +416,6 @@
     <t>data('consentimento')=='2'</t>
   </si>
   <si>
-    <t>goto recusa</t>
-  </si>
-  <si>
-    <t>inclusao</t>
-  </si>
-  <si>
     <t>date_rastreio</t>
   </si>
   <si>
@@ -492,156 +440,6 @@
     <t>Idade ou data de nascimento?</t>
   </si>
   <si>
-    <t>cabezado</t>
-  </si>
-  <si>
-    <t>n_rastreio</t>
-  </si>
-  <si>
-    <t>id_estudo</t>
-  </si>
-  <si>
-    <t>id_lamina</t>
-  </si>
-  <si>
-    <t>nota_nome</t>
-  </si>
-  <si>
-    <t>nota_dn</t>
-  </si>
-  <si>
-    <t>nota_ano</t>
-  </si>
-  <si>
-    <t>nota_mes</t>
-  </si>
-  <si>
-    <t>peso</t>
-  </si>
-  <si>
-    <t>acompanhante</t>
-  </si>
-  <si>
-    <t>outro_acompanhante</t>
-  </si>
-  <si>
-    <t>nome_mae</t>
-  </si>
-  <si>
-    <t>tel_mae</t>
-  </si>
-  <si>
-    <t>nome_pai</t>
-  </si>
-  <si>
-    <t>tel_pai</t>
-  </si>
-  <si>
-    <t>nome_acomp</t>
-  </si>
-  <si>
-    <t>tel_acomp</t>
-  </si>
-  <si>
-    <t>tab_bairro</t>
-  </si>
-  <si>
-    <t>zona</t>
-  </si>
-  <si>
-    <t>ponto_referencia</t>
-  </si>
-  <si>
-    <t>nota_temperatura</t>
-  </si>
-  <si>
-    <t>febre_history</t>
-  </si>
-  <si>
-    <t>doente</t>
-  </si>
-  <si>
-    <t>vomito</t>
-  </si>
-  <si>
-    <t>coceira</t>
-  </si>
-  <si>
-    <t>exantema</t>
-  </si>
-  <si>
-    <t>dor_articular</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>bebe</t>
-  </si>
-  <si>
-    <t>convulsao</t>
-  </si>
-  <si>
-    <t>outro_sintomas</t>
-  </si>
-  <si>
-    <t>esp_sintomas</t>
-  </si>
-  <si>
-    <t>medicacao_previa</t>
-  </si>
-  <si>
-    <t>esp_medi_previo</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>date_SP</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>hora_SP</t>
-  </si>
-  <si>
-    <t>dose_SP</t>
-  </si>
-  <si>
-    <t>vomitou_SP</t>
-  </si>
-  <si>
-    <t>hora_vomito_SP</t>
-  </si>
-  <si>
-    <t>aq</t>
-  </si>
-  <si>
-    <t>date_AQ</t>
-  </si>
-  <si>
-    <t>hora_AQ</t>
-  </si>
-  <si>
-    <t>dose_AQ</t>
-  </si>
-  <si>
-    <t>vomitou_AQ</t>
-  </si>
-  <si>
-    <t>hora_vomito_AQ</t>
-  </si>
-  <si>
-    <t>outro_medicamento</t>
-  </si>
-  <si>
-    <t>outros_medicamentos</t>
-  </si>
-  <si>
-    <t>lamina</t>
-  </si>
-  <si>
     <t>data('TDR')=='1'</t>
   </si>
   <si>
@@ -702,9 +500,6 @@
     <t>calculates.idade_mes()&lt;3 || calculates.idade_mes()&gt;59</t>
   </si>
   <si>
-    <t>data('resultado_TDR')=='3'</t>
-  </si>
-  <si>
     <t>revisa o valor introduzido, a temperatura deve ser en grau celsius e nao fahrenheit</t>
   </si>
   <si>
@@ -759,18 +554,6 @@
     <t>comentario</t>
   </si>
   <si>
-    <t>comentario2</t>
-  </si>
-  <si>
-    <t>_id=?</t>
-  </si>
-  <si>
-    <t>{date_rastreio: data('date_rastreio'), id_rastreio: data('id_rastreio'), region: data('region'), cs: data('cs'), nome: data('nome'), DOB_ou_idade: data('DOB_ou_idade'), dn: data('dn'), ano: data('ano'), mes: data('mes'), febre: data('febre'), temperatura: data('temperatura'), TDR: data('TDR'), resultado_TDR: data('resultado_TDR'), via_oral: data('via_oral'), desnutrido: data('desnutrido'), paludismo_grave: data('paludismo_grave'), outra_condicao: data('outra_condicao'), especificar_condicao: data('especificar_condicao'), nota_condicao: data('nota_condicao'), consentimento: data('consentimento'), rastreioID_completo: opendatakit.getCurrentInstanceId()}</t>
-  </si>
-  <si>
-    <t>[ data('rastreioID_completo') ]</t>
-  </si>
-  <si>
     <t>adate.today()</t>
   </si>
   <si>
@@ -804,9 +587,6 @@
     <t>calculates.idade_mes()&lt;3 ? ("Menor que 3 meses") : calculates.idade_mes()&gt;59 ? ("Maior de 59 meses") : ("")</t>
   </si>
   <si>
-    <t>MUAC</t>
-  </si>
-  <si>
     <t>ganmamudo</t>
   </si>
   <si>
@@ -817,13 +597,22 @@
   </si>
   <si>
     <t>Sonaco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data('temperatura')==888 || (data('temperatura')&gt;=34  &amp;&amp; data('temperatura')&lt;=43) </t>
+  </si>
+  <si>
+    <t>data('via_oral')=='2' || data('desnutrido')=='1' || data('paludismo_grave')=='1' || data('outra_condicao')=='1' || data('consentimento')=='2'</t>
+  </si>
+  <si>
+    <t>se não for tomada coloca 888</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -877,20 +666,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -994,15 +769,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1018,8 +790,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1042,18 +812,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1480,8 +1240,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1267,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1515,7 +1275,7 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>2020061901</v>
+        <v>2020071901</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1523,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1531,15 +1291,15 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1555,13 +1315,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z104"/>
+  <dimension ref="A1:Z96"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C48" sqref="C48"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1575,7 +1335,7 @@
     <col min="7" max="7" width="54.125" style="2" customWidth="1"/>
     <col min="8" max="8" width="29.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="45" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.875" style="3" customWidth="1"/>
     <col min="11" max="12" width="28.5" style="2" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" customWidth="1"/>
     <col min="14" max="14" width="60" style="2" customWidth="1"/>
@@ -1587,7 +1347,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>8</v>
@@ -1595,7 +1355,7 @@
       <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -1619,8 +1379,8 @@
       <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>225</v>
+      <c r="L1" s="19" t="s">
+        <v>157</v>
       </c>
       <c r="M1" t="s">
         <v>31</v>
@@ -1628,14 +1388,14 @@
       <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>207</v>
+      <c r="P1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="R1" t="s">
         <v>33</v>
@@ -1667,22 +1427,22 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J6" s="13"/>
+        <v>177</v>
+      </c>
+      <c r="J6" s="10"/>
       <c r="N6" s="2" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="P6">
         <v>2020</v>
@@ -1696,15 +1456,15 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="M7" s="4"/>
+      <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="X7" s="2" t="b">
@@ -1713,21 +1473,21 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="J8" s="2"/>
-      <c r="M8" s="4"/>
+      <c r="M8" s="3"/>
       <c r="N8"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E9" t="s">
@@ -1737,34 +1497,34 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H9"/>
       <c r="K9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="L9" s="10"/>
+      <c r="L9" s="9"/>
       <c r="O9"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="H10"/>
       <c r="K10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1772,25 +1532,25 @@
         <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J11" s="13"/>
+        <v>149</v>
+      </c>
+      <c r="J11" s="10"/>
       <c r="K11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -1801,7 +1561,7 @@
         <v>23</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K14" s="2" t="b">
         <v>1</v>
@@ -1812,13 +1572,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="K16" s="2" t="b">
         <v>1</v>
@@ -1826,20 +1586,20 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>26</v>
@@ -1848,7 +1608,7 @@
         <v>25</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="P20">
         <v>2014</v>
@@ -1859,7 +1619,7 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
@@ -1870,16 +1630,16 @@
         <v>27</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="31.5" x14ac:dyDescent="0.25">
@@ -1890,64 +1650,64 @@
         <v>28</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D27" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1955,30 +1715,36 @@
         <v>10</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>221</v>
+        <v>87</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="L36" s="2">
         <v>37</v>
@@ -1986,7 +1752,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -1994,30 +1760,30 @@
         <v>10</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>250</v>
+        <v>133</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
@@ -2025,463 +1791,401 @@
         <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>251</v>
+        <v>134</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>220</v>
-      </c>
+      <c r="A46"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47"/>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48"/>
       <c r="D48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49"/>
       <c r="D49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50"/>
       <c r="D50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D51" s="2" t="s">
+      <c r="B51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="2" t="s">
+      <c r="E54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>217</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="13"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E65" s="13"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="D67" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E67" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F67" s="2" t="s">
-        <v>203</v>
+        <v>122</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="D68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="O69" s="10"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="O70" s="10"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="O71" s="10"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="O72" s="10"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="O73" s="10"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="O74" s="10"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="O75" s="10"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="O76" s="10"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="O77" s="10"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="O78" s="10"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="O79" s="10"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="O80" s="10"/>
+    </row>
+    <row r="88" spans="1:17" s="11" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B69" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B71" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="O71" s="13"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="J72" s="3"/>
-      <c r="O72" s="13"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73"/>
-      <c r="D73" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B74" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="O74" s="13"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="O75" s="13"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B76" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="O76" s="13"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="O77" s="13"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="O78" s="13"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="O79" s="13"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="O80" s="13"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="O81" s="13"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="O82" s="13"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="O83" s="13"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="O84" s="13"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="O85" s="13"/>
-    </row>
-    <row r="93" spans="1:17" s="14" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A93" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G93" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="J93" s="15"/>
-      <c r="P93"/>
-      <c r="Q93"/>
-    </row>
-    <row r="94" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="J94" s="15"/>
-      <c r="P94"/>
-      <c r="Q94"/>
-    </row>
-    <row r="95" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J95" s="15"/>
-      <c r="P95"/>
-      <c r="Q95"/>
-    </row>
-    <row r="97" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="E88" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J88" s="12"/>
+      <c r="K88" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="P88"/>
+      <c r="Q88"/>
+    </row>
+    <row r="89" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="J89" s="12"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+    </row>
+    <row r="90" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="12"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+    </row>
+    <row r="96" spans="1:17" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D96" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" s="16" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F104" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="G104" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="H104" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="J104" s="17"/>
-      <c r="P104"/>
-      <c r="Q104"/>
+      <c r="F96" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J96" s="14"/>
+      <c r="P96"/>
+      <c r="Q96"/>
     </row>
   </sheetData>
   <autoFilter ref="D1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -2500,7 +2204,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2534,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,12 +2249,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -2561,13 +2265,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,24 +2280,24 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2609,10 +2313,10 @@
         <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2620,10 +2324,10 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2631,86 +2335,86 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>255</v>
+        <v>182</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>258</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2722,35 +2426,35 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2">
         <v>3</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2763,35 +2467,35 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -2803,46 +2507,46 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B37" s="2">
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3326,103 +3030,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C574FB-861C-4A83-BA50-230986D05032}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="50.375" customWidth="1"/>
-    <col min="8" max="8" width="46.5" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="61" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" t="s">
-        <v>242</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5FCBCF-A5C9-46E1-9441-C92FF7C3D2D5}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:D3"/>
@@ -3438,46 +3045,46 @@
     <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>61</v>
+      <c r="C1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3485,7 +3092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02CAEF6-746F-4DFF-99B1-6DB036574858}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -3509,50 +3116,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>210</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>222</v>
+        <v>154</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3561,34 +3168,34 @@
     </row>
     <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>227</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3596,13 +3203,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3612,623 +3219,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>142</v>
+      <c r="A4" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>148</v>
+      <c r="B5" s="15" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>87</v>
+      <c r="B7" s="17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>91</v>
+      <c r="B9" s="15" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>150</v>
+      <c r="B26" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>151</v>
+      <c r="A27" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="21" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B45" s="23" t="s">
+      <c r="A28" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="23" t="s">
+      <c r="B28" s="2" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="25" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B64" s="25" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="25" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B70" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B73" s="25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="25" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B80" s="25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>
